--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3179.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3179.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.130521404304391</v>
+        <v>1.017009496688843</v>
       </c>
       <c r="B1">
-        <v>1.751676715240762</v>
+        <v>2.060846090316772</v>
       </c>
       <c r="C1">
-        <v>4.20667355068585</v>
+        <v>3.874757766723633</v>
       </c>
       <c r="D1">
-        <v>5.95328564882263</v>
+        <v>1.273569941520691</v>
       </c>
       <c r="E1">
-        <v>1.65390011788157</v>
+        <v>0.6976171135902405</v>
       </c>
     </row>
   </sheetData>
